--- a/data/sitesFile.xlsx
+++ b/data/sitesFile.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coals01826\Desktop\Coding\hanson-bas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111D65D7-DBC9-42F7-A886-119EDE3B655E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9E0D59-5231-408E-A65A-F43EDE0FF8D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1B8404C5-D1B1-4FB3-9776-8DBF598CD382}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data Structure Example" sheetId="1" r:id="rId1"/>
+    <sheet name="Haystack TZ" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="467">
   <si>
     <t>dis</t>
   </si>
@@ -36,21 +37,9 @@
     <t>tz</t>
   </si>
   <si>
-    <t>area</t>
-  </si>
-  <si>
-    <t>weatherstationRef</t>
-  </si>
-  <si>
     <t>Springfield-Hanson</t>
   </si>
   <si>
-    <t>Springfield</t>
-  </si>
-  <si>
-    <t>geo</t>
-  </si>
-  <si>
     <t>geoCity</t>
   </si>
   <si>
@@ -69,44 +58,1382 @@
     <t>geoState</t>
   </si>
   <si>
-    <t>geoStreet</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
     <t>IL</t>
   </si>
   <si>
-    <t>6th Street</t>
-  </si>
-  <si>
-    <t>1525 S</t>
-  </si>
-  <si>
-    <t>Sangamon</t>
-  </si>
-  <si>
-    <t>39.785234 -89.648820</t>
-  </si>
-  <si>
-    <t>geoRoute</t>
-  </si>
-  <si>
     <t>C(39.785234, -89.648820)</t>
   </si>
   <si>
-    <t>https://pypi.org/project/pytz/</t>
-  </si>
-  <si>
-    <t>Can we call this programatically</t>
+    <t>Tag Name</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>1525 South 6th Street Springfield, IL'</t>
+  </si>
+  <si>
+    <t>Springfield'</t>
+  </si>
+  <si>
+    <t>US'</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>This is a unique id specific to the datbase storing the information. It is up to the application storing the data to create the ID for internal users.</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>Marker_kind</t>
+  </si>
+  <si>
+    <t>This marker simply means that the entity is a site.</t>
+  </si>
+  <si>
+    <t>This holds the display name associated with the site.</t>
+  </si>
+  <si>
+    <t>Street address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City name </t>
+  </si>
+  <si>
+    <t>Data type</t>
+  </si>
+  <si>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t>Marker</t>
+  </si>
+  <si>
+    <t>Str</t>
+  </si>
+  <si>
+    <t>Coord</t>
+  </si>
+  <si>
+    <t>Geo coordinates.</t>
+  </si>
+  <si>
+    <t>Sangamon'</t>
+  </si>
+  <si>
+    <t>62703'</t>
+  </si>
+  <si>
+    <t>https://project-haystack.org/download/tz.txt</t>
+  </si>
+  <si>
+    <t>id number 1</t>
+  </si>
+  <si>
+    <t>id number 2</t>
+  </si>
+  <si>
+    <t>equip</t>
+  </si>
+  <si>
+    <t>This is a marker tag indicating this entity as "equip" - a piece of equipment. It gives it an identifiable place in the hieracrchy: Site-Equip-Point</t>
+  </si>
+  <si>
+    <t>"RTU1"</t>
+  </si>
+  <si>
+    <t>An example of equipment id (aka Tag Name)</t>
+  </si>
+  <si>
+    <t>2 - Equipment Info</t>
+  </si>
+  <si>
+    <t>ahu</t>
+  </si>
+  <si>
+    <t>1 - Entity Info Required</t>
+  </si>
+  <si>
+    <t>Indicates this entity is an air handling unit.</t>
+  </si>
+  <si>
+    <t>hvac</t>
+  </si>
+  <si>
+    <t>Indicates this entity is associated with HVAC (vs lighting, electrical, etc.)</t>
+  </si>
+  <si>
+    <t>rooftop</t>
+  </si>
+  <si>
+    <t>Indicaets that this equipme is a rooftop type ahu</t>
+  </si>
+  <si>
+    <t>siteRef</t>
+  </si>
+  <si>
+    <t>This ref indicates it belongs to the site Springfield-Hanson</t>
+  </si>
+  <si>
+    <t>elecMeterRef</t>
+  </si>
+  <si>
+    <t>id number 3</t>
+  </si>
+  <si>
+    <t>This ref indicates associates this ahu with a specific energy meter (the meter has not been defined in this document, it is an example.)</t>
+  </si>
+  <si>
+    <t>3 -Defining a point associated with our equipment</t>
+  </si>
+  <si>
+    <t>id number 4</t>
+  </si>
+  <si>
+    <t>The record will have a unique id in the system where it is created.</t>
+  </si>
+  <si>
+    <t>Discharge Air Temp'</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>Name of the point.</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>Marker indicating a point entity</t>
+  </si>
+  <si>
+    <t>2.2 - Equipment relationships</t>
+  </si>
+  <si>
+    <t>2.1 - Equipment Marker Info</t>
+  </si>
+  <si>
+    <t>1.1 - Entity's additional info</t>
+  </si>
+  <si>
+    <t>3.1 point measures associated with the data attributes values</t>
+  </si>
+  <si>
+    <t>discharge</t>
+  </si>
+  <si>
+    <t>Marker indicates point location is discharge air</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>marker indicates point measures air (expect air flow: CFM or ft2/s)</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>marker indicating point measures temp</t>
+  </si>
+  <si>
+    <t>sensor</t>
+  </si>
+  <si>
+    <t>Marker indicates the point is a sensor.</t>
+  </si>
+  <si>
+    <t>his</t>
+  </si>
+  <si>
+    <t>Marker indicating point has history of timestamp/value pairs</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>Number'</t>
+  </si>
+  <si>
+    <t>Indicates the data is expressed as a number.</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>F'</t>
+  </si>
+  <si>
+    <t>engineering unit of measure.</t>
+  </si>
+  <si>
+    <t>3.2 - Point relationships</t>
+  </si>
+  <si>
+    <t>id number 5</t>
+  </si>
+  <si>
+    <t>equipRef</t>
+  </si>
+  <si>
+    <t>The record will have a unique id in the system where the equipment this point is associated with.</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Time Zone Locations</t>
+  </si>
+  <si>
+    <t>Abidjan</t>
+  </si>
+  <si>
+    <t>Accra</t>
+  </si>
+  <si>
+    <t>Adak</t>
+  </si>
+  <si>
+    <t>Adelaide</t>
+  </si>
+  <si>
+    <t>Algiers</t>
+  </si>
+  <si>
+    <t>Almaty</t>
+  </si>
+  <si>
+    <t>Amman</t>
+  </si>
+  <si>
+    <t>Amsterdam</t>
+  </si>
+  <si>
+    <t>Anadyr</t>
+  </si>
+  <si>
+    <t>Anchorage</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Apia</t>
+  </si>
+  <si>
+    <t>Aqtau</t>
+  </si>
+  <si>
+    <t>Aqtobe</t>
+  </si>
+  <si>
+    <t>Araguaina</t>
+  </si>
+  <si>
+    <t>Ashgabat</t>
+  </si>
+  <si>
+    <t>Astrakhan</t>
+  </si>
+  <si>
+    <t>Asuncion</t>
+  </si>
+  <si>
+    <t>Athens</t>
+  </si>
+  <si>
+    <t>Atikokan</t>
+  </si>
+  <si>
+    <t>Atyrau</t>
+  </si>
+  <si>
+    <t>Auckland</t>
+  </si>
+  <si>
+    <t>Azores</t>
+  </si>
+  <si>
+    <t>Baghdad</t>
+  </si>
+  <si>
+    <t>Bahia</t>
+  </si>
+  <si>
+    <t>Bahia_Banderas</t>
+  </si>
+  <si>
+    <t>Baku</t>
+  </si>
+  <si>
+    <t>Bangkok</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Barnaul</t>
+  </si>
+  <si>
+    <t>Beirut</t>
+  </si>
+  <si>
+    <t>Belem</t>
+  </si>
+  <si>
+    <t>Belgrade</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Beulah</t>
+  </si>
+  <si>
+    <t>Bishkek</t>
+  </si>
+  <si>
+    <t>Bissau</t>
+  </si>
+  <si>
+    <t>Blanc-Sablon</t>
+  </si>
+  <si>
+    <t>Boa_Vista</t>
+  </si>
+  <si>
+    <t>Bogota</t>
+  </si>
+  <si>
+    <t>Boise</t>
+  </si>
+  <si>
+    <t>Bougainville</t>
+  </si>
+  <si>
+    <t>Brisbane</t>
+  </si>
+  <si>
+    <t>Broken_Hill</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>Brussels</t>
+  </si>
+  <si>
+    <t>Bucharest</t>
+  </si>
+  <si>
+    <t>Budapest</t>
+  </si>
+  <si>
+    <t>Buenos_Aires</t>
+  </si>
+  <si>
+    <t>Cairo</t>
+  </si>
+  <si>
+    <t>Cambridge_Bay</t>
+  </si>
+  <si>
+    <t>Campo_Grande</t>
+  </si>
+  <si>
+    <t>Canary</t>
+  </si>
+  <si>
+    <t>Cancun</t>
+  </si>
+  <si>
+    <t>Cape_Verde</t>
+  </si>
+  <si>
+    <t>Caracas</t>
+  </si>
+  <si>
+    <t>Casablanca</t>
+  </si>
+  <si>
+    <t>Casey</t>
+  </si>
+  <si>
+    <t>Catamarca</t>
+  </si>
+  <si>
+    <t>Cayenne</t>
+  </si>
+  <si>
+    <t>Center</t>
+  </si>
+  <si>
+    <t>Ceuta</t>
+  </si>
+  <si>
+    <t>Chagos</t>
+  </si>
+  <si>
+    <t>Chatham</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Chihuahua</t>
+  </si>
+  <si>
+    <t>Chisinau</t>
+  </si>
+  <si>
+    <t>Chita</t>
+  </si>
+  <si>
+    <t>Choibalsan</t>
+  </si>
+  <si>
+    <t>Christmas</t>
+  </si>
+  <si>
+    <t>Chuuk</t>
+  </si>
+  <si>
+    <t>Cocos</t>
+  </si>
+  <si>
+    <t>Colombo</t>
+  </si>
+  <si>
+    <t>Copenhagen</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>Costa_Rica</t>
+  </si>
+  <si>
+    <t>Creston</t>
+  </si>
+  <si>
+    <t>Cuiaba</t>
+  </si>
+  <si>
+    <t>Curacao</t>
+  </si>
+  <si>
+    <t>Currie</t>
+  </si>
+  <si>
+    <t>Damascus</t>
+  </si>
+  <si>
+    <t>Danmarkshavn</t>
+  </si>
+  <si>
+    <t>Darwin</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Dawson</t>
+  </si>
+  <si>
+    <t>Dawson_Creek</t>
+  </si>
+  <si>
+    <t>Denver</t>
+  </si>
+  <si>
+    <t>Detroit</t>
+  </si>
+  <si>
+    <t>Dhaka</t>
+  </si>
+  <si>
+    <t>Dili</t>
+  </si>
+  <si>
+    <t>Dubai</t>
+  </si>
+  <si>
+    <t>Dublin</t>
+  </si>
+  <si>
+    <t>DumontDUrville</t>
+  </si>
+  <si>
+    <t>Dushanbe</t>
+  </si>
+  <si>
+    <t>Easter</t>
+  </si>
+  <si>
+    <t>Edmonton</t>
+  </si>
+  <si>
+    <t>Efate</t>
+  </si>
+  <si>
+    <t>Eirunepe</t>
+  </si>
+  <si>
+    <t>El_Aaiun</t>
+  </si>
+  <si>
+    <t>El_Salvador</t>
+  </si>
+  <si>
+    <t>Enderbury</t>
+  </si>
+  <si>
+    <t>Eucla</t>
+  </si>
+  <si>
+    <t>Fakaofo</t>
+  </si>
+  <si>
+    <t>Famagusta</t>
+  </si>
+  <si>
+    <t>Faroe</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Fort_Nelson</t>
+  </si>
+  <si>
+    <t>Fortaleza</t>
+  </si>
+  <si>
+    <t>Funafuti</t>
+  </si>
+  <si>
+    <t>GMT</t>
+  </si>
+  <si>
+    <t>GMT+1</t>
+  </si>
+  <si>
+    <t>GMT+10</t>
+  </si>
+  <si>
+    <t>GMT+11</t>
+  </si>
+  <si>
+    <t>GMT+12</t>
+  </si>
+  <si>
+    <t>GMT+2</t>
+  </si>
+  <si>
+    <t>GMT+3</t>
+  </si>
+  <si>
+    <t>GMT+4</t>
+  </si>
+  <si>
+    <t>GMT+5</t>
+  </si>
+  <si>
+    <t>GMT+6</t>
+  </si>
+  <si>
+    <t>GMT+7</t>
+  </si>
+  <si>
+    <t>GMT+8</t>
+  </si>
+  <si>
+    <t>GMT+9</t>
+  </si>
+  <si>
+    <t>GMT-1</t>
+  </si>
+  <si>
+    <t>GMT-10</t>
+  </si>
+  <si>
+    <t>GMT-11</t>
+  </si>
+  <si>
+    <t>GMT-12</t>
+  </si>
+  <si>
+    <t>GMT-13</t>
+  </si>
+  <si>
+    <t>GMT-14</t>
+  </si>
+  <si>
+    <t>GMT-2</t>
+  </si>
+  <si>
+    <t>GMT-3</t>
+  </si>
+  <si>
+    <t>GMT-4</t>
+  </si>
+  <si>
+    <t>GMT-5</t>
+  </si>
+  <si>
+    <t>GMT-6</t>
+  </si>
+  <si>
+    <t>GMT-7</t>
+  </si>
+  <si>
+    <t>GMT-8</t>
+  </si>
+  <si>
+    <t>GMT-9</t>
+  </si>
+  <si>
+    <t>Galapagos</t>
+  </si>
+  <si>
+    <t>Gambier</t>
+  </si>
+  <si>
+    <t>Gaza</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Glace_Bay</t>
+  </si>
+  <si>
+    <t>Godthab</t>
+  </si>
+  <si>
+    <t>Goose_Bay</t>
+  </si>
+  <si>
+    <t>Grand_Turk</t>
+  </si>
+  <si>
+    <t>Guadalcanal</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guayaquil</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Halifax</t>
+  </si>
+  <si>
+    <t>Havana</t>
+  </si>
+  <si>
+    <t>Hebron</t>
+  </si>
+  <si>
+    <t>Helsinki</t>
+  </si>
+  <si>
+    <t>Hermosillo</t>
+  </si>
+  <si>
+    <t>Ho_Chi_Minh</t>
+  </si>
+  <si>
+    <t>Hobart</t>
+  </si>
+  <si>
+    <t>Hong_Kong</t>
+  </si>
+  <si>
+    <t>Honolulu</t>
+  </si>
+  <si>
+    <t>Hovd</t>
+  </si>
+  <si>
+    <t>Indianapolis</t>
+  </si>
+  <si>
+    <t>Inuvik</t>
+  </si>
+  <si>
+    <t>Iqaluit</t>
+  </si>
+  <si>
+    <t>Irkutsk</t>
+  </si>
+  <si>
+    <t>Istanbul</t>
+  </si>
+  <si>
+    <t>Jakarta</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Jayapura</t>
+  </si>
+  <si>
+    <t>Jerusalem</t>
+  </si>
+  <si>
+    <t>Johannesburg</t>
+  </si>
+  <si>
+    <t>Juba</t>
+  </si>
+  <si>
+    <t>Jujuy</t>
+  </si>
+  <si>
+    <t>Juneau</t>
+  </si>
+  <si>
+    <t>Kabul</t>
+  </si>
+  <si>
+    <t>Kaliningrad</t>
+  </si>
+  <si>
+    <t>Kamchatka</t>
+  </si>
+  <si>
+    <t>Karachi</t>
+  </si>
+  <si>
+    <t>Kathmandu</t>
+  </si>
+  <si>
+    <t>Kerguelen</t>
+  </si>
+  <si>
+    <t>Khandyga</t>
+  </si>
+  <si>
+    <t>Khartoum</t>
+  </si>
+  <si>
+    <t>Kiev</t>
+  </si>
+  <si>
+    <t>Kiritimati</t>
+  </si>
+  <si>
+    <t>Kirov</t>
+  </si>
+  <si>
+    <t>Knox</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>Kosrae</t>
+  </si>
+  <si>
+    <t>Krasnoyarsk</t>
+  </si>
+  <si>
+    <t>Kuala_Lumpur</t>
+  </si>
+  <si>
+    <t>Kuching</t>
+  </si>
+  <si>
+    <t>Kwajalein</t>
+  </si>
+  <si>
+    <t>La_Paz</t>
+  </si>
+  <si>
+    <t>La_Rioja</t>
+  </si>
+  <si>
+    <t>Lagos</t>
+  </si>
+  <si>
+    <t>Lima</t>
+  </si>
+  <si>
+    <t>Lindeman</t>
+  </si>
+  <si>
+    <t>Lisbon</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Lord_Howe</t>
+  </si>
+  <si>
+    <t>Los_Angeles</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Macau</t>
+  </si>
+  <si>
+    <t>Maceio</t>
+  </si>
+  <si>
+    <t>Macquarie</t>
+  </si>
+  <si>
+    <t>Madeira</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>Magadan</t>
+  </si>
+  <si>
+    <t>Mahe</t>
+  </si>
+  <si>
+    <t>Majuro</t>
+  </si>
+  <si>
+    <t>Makassar</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Managua</t>
+  </si>
+  <si>
+    <t>Manaus</t>
+  </si>
+  <si>
+    <t>Manila</t>
+  </si>
+  <si>
+    <t>Maputo</t>
+  </si>
+  <si>
+    <t>Marengo</t>
+  </si>
+  <si>
+    <t>Marquesas</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>Matamoros</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mawson</t>
+  </si>
+  <si>
+    <t>Mazatlan</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>Mendoza</t>
+  </si>
+  <si>
+    <t>Menominee</t>
+  </si>
+  <si>
+    <t>Merida</t>
+  </si>
+  <si>
+    <t>Metlakatla</t>
+  </si>
+  <si>
+    <t>Mexico_City</t>
+  </si>
+  <si>
+    <t>Minsk</t>
+  </si>
+  <si>
+    <t>Miquelon</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Moncton</t>
+  </si>
+  <si>
+    <t>Monrovia</t>
+  </si>
+  <si>
+    <t>Monterrey</t>
+  </si>
+  <si>
+    <t>Montevideo</t>
+  </si>
+  <si>
+    <t>Monticello</t>
+  </si>
+  <si>
+    <t>Moscow</t>
+  </si>
+  <si>
+    <t>Nairobi</t>
+  </si>
+  <si>
+    <t>Nassau</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Ndjamena</t>
+  </si>
+  <si>
+    <t>New_Salem</t>
+  </si>
+  <si>
+    <t>New_York</t>
+  </si>
+  <si>
+    <t>Nicosia</t>
+  </si>
+  <si>
+    <t>Nipigon</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Norfolk</t>
+  </si>
+  <si>
+    <t>Noronha</t>
+  </si>
+  <si>
+    <t>Noumea</t>
+  </si>
+  <si>
+    <t>Novokuznetsk</t>
+  </si>
+  <si>
+    <t>Novosibirsk</t>
+  </si>
+  <si>
+    <t>Ojinaga</t>
+  </si>
+  <si>
+    <t>Omsk</t>
+  </si>
+  <si>
+    <t>Oral</t>
+  </si>
+  <si>
+    <t>Oslo</t>
+  </si>
+  <si>
+    <t>Pago_Pago</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Palmer</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Pangnirtung</t>
+  </si>
+  <si>
+    <t>Paramaribo</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Perth</t>
+  </si>
+  <si>
+    <t>Petersburg</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>Pitcairn</t>
+  </si>
+  <si>
+    <t>Pohnpei</t>
+  </si>
+  <si>
+    <t>Pontianak</t>
+  </si>
+  <si>
+    <t>Port-au-Prince</t>
+  </si>
+  <si>
+    <t>Port_Moresby</t>
+  </si>
+  <si>
+    <t>Port_of_Spain</t>
+  </si>
+  <si>
+    <t>Porto_Velho</t>
+  </si>
+  <si>
+    <t>Prague</t>
+  </si>
+  <si>
+    <t>Puerto_Rico</t>
+  </si>
+  <si>
+    <t>Punta_Arenas</t>
+  </si>
+  <si>
+    <t>Pyongyang</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Qostanay</t>
+  </si>
+  <si>
+    <t>Qyzylorda</t>
+  </si>
+  <si>
+    <t>Rainy_River</t>
+  </si>
+  <si>
+    <t>Rankin_Inlet</t>
+  </si>
+  <si>
+    <t>Rarotonga</t>
+  </si>
+  <si>
+    <t>Recife</t>
+  </si>
+  <si>
+    <t>Regina</t>
+  </si>
+  <si>
+    <t>Rel</t>
+  </si>
+  <si>
+    <t>Resolute</t>
+  </si>
+  <si>
+    <t>Reunion</t>
+  </si>
+  <si>
+    <t>Reykjavik</t>
+  </si>
+  <si>
+    <t>Riga</t>
+  </si>
+  <si>
+    <t>Rio_Branco</t>
+  </si>
+  <si>
+    <t>Rio_Gallegos</t>
+  </si>
+  <si>
+    <t>Riyadh</t>
+  </si>
+  <si>
+    <t>Rome</t>
+  </si>
+  <si>
+    <t>Rothera</t>
+  </si>
+  <si>
+    <t>Sakhalin</t>
+  </si>
+  <si>
+    <t>Salta</t>
+  </si>
+  <si>
+    <t>Samara</t>
+  </si>
+  <si>
+    <t>Samarkand</t>
+  </si>
+  <si>
+    <t>San_Juan</t>
+  </si>
+  <si>
+    <t>San_Luis</t>
+  </si>
+  <si>
+    <t>Santarem</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>Santo_Domingo</t>
+  </si>
+  <si>
+    <t>Sao_Paulo</t>
+  </si>
+  <si>
+    <t>Sao_Tome</t>
+  </si>
+  <si>
+    <t>Saratov</t>
+  </si>
+  <si>
+    <t>Scoresbysund</t>
+  </si>
+  <si>
+    <t>Seoul</t>
+  </si>
+  <si>
+    <t>Shanghai</t>
+  </si>
+  <si>
+    <t>Simferopol</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Sitka</t>
+  </si>
+  <si>
+    <t>Sofia</t>
+  </si>
+  <si>
+    <t>South_Georgia</t>
+  </si>
+  <si>
+    <t>Srednekolymsk</t>
+  </si>
+  <si>
+    <t>St_Johns</t>
+  </si>
+  <si>
+    <t>Stanley</t>
+  </si>
+  <si>
+    <t>Stockholm</t>
+  </si>
+  <si>
+    <t>Swift_Current</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>Syowa</t>
+  </si>
+  <si>
+    <t>Tahiti</t>
+  </si>
+  <si>
+    <t>Taipei</t>
+  </si>
+  <si>
+    <t>Tallinn</t>
+  </si>
+  <si>
+    <t>Tarawa</t>
+  </si>
+  <si>
+    <t>Tashkent</t>
+  </si>
+  <si>
+    <t>Tbilisi</t>
+  </si>
+  <si>
+    <t>Tegucigalpa</t>
+  </si>
+  <si>
+    <t>Tehran</t>
+  </si>
+  <si>
+    <t>Tell_City</t>
+  </si>
+  <si>
+    <t>Thimphu</t>
+  </si>
+  <si>
+    <t>Thule</t>
+  </si>
+  <si>
+    <t>Thunder_Bay</t>
+  </si>
+  <si>
+    <t>Tijuana</t>
+  </si>
+  <si>
+    <t>Tirane</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>Tomsk</t>
+  </si>
+  <si>
+    <t>Tongatapu</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>Tripoli</t>
+  </si>
+  <si>
+    <t>Troll</t>
+  </si>
+  <si>
+    <t>Tucuman</t>
+  </si>
+  <si>
+    <t>Tunis</t>
+  </si>
+  <si>
+    <t>UTC</t>
+  </si>
+  <si>
+    <t>Ulaanbaatar</t>
+  </si>
+  <si>
+    <t>Ulyanovsk</t>
+  </si>
+  <si>
+    <t>Urumqi</t>
+  </si>
+  <si>
+    <t>Ushuaia</t>
+  </si>
+  <si>
+    <t>Ust-Nera</t>
+  </si>
+  <si>
+    <t>Uzhgorod</t>
+  </si>
+  <si>
+    <t>Vancouver</t>
+  </si>
+  <si>
+    <t>Vevay</t>
+  </si>
+  <si>
+    <t>Vienna</t>
+  </si>
+  <si>
+    <t>Vilnius</t>
+  </si>
+  <si>
+    <t>Vincennes</t>
+  </si>
+  <si>
+    <t>Vladivostok</t>
+  </si>
+  <si>
+    <t>Volgograd</t>
+  </si>
+  <si>
+    <t>Vostok</t>
+  </si>
+  <si>
+    <t>Wake</t>
+  </si>
+  <si>
+    <t>Wallis</t>
+  </si>
+  <si>
+    <t>Warsaw</t>
+  </si>
+  <si>
+    <t>Whitehorse</t>
+  </si>
+  <si>
+    <t>Winamac</t>
+  </si>
+  <si>
+    <t>Windhoek</t>
+  </si>
+  <si>
+    <t>Winnipeg</t>
+  </si>
+  <si>
+    <t>Yakutat</t>
+  </si>
+  <si>
+    <t>Yakutsk</t>
+  </si>
+  <si>
+    <t>Yangon</t>
+  </si>
+  <si>
+    <t>Yekaterinburg</t>
+  </si>
+  <si>
+    <t>Yellowknife</t>
+  </si>
+  <si>
+    <t>Yerevan</t>
+  </si>
+  <si>
+    <t>Zaporozhye</t>
+  </si>
+  <si>
+    <t>Zurich</t>
+  </si>
+  <si>
+    <t>Call from linked list in Value column or Haystack TZ tab.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +1449,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -148,10 +1482,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -168,6 +1533,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>170588</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>541963</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79F566C0-6221-4DCC-9986-C2B21D2B6BD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8334375" y="9525"/>
+          <a:ext cx="6895238" cy="7695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>561975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>180188</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>571332</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5815BC7A-8137-4C26-B8DD-EBEC5FFA1CC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8296275" y="7724775"/>
+          <a:ext cx="6295238" cy="1342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -467,118 +1925,2526 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C347D9F-0C2C-4995-9482-1BA11D4DA6D1}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="14.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="D9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="E11" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M1" t="s">
+      <c r="D12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>2</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>2</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>2</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>3</v>
       </c>
-      <c r="N1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B21" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>3</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>3</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2">
-        <v>62703</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L3" s="2" t="s">
-        <v>23</v>
+      <c r="E23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B20"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="L3" r:id="rId1" xr:uid="{59D510D5-4811-4479-852E-2B65E00378CA}"/>
+    <hyperlink ref="D12" r:id="rId1" xr:uid="{15200249-04C4-4C9E-B757-65C9DC6981F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E615D445-7E17-4BF3-AB53-36A4C803CC3E}">
+  <dimension ref="A1:A378"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="11" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="11" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="11" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="11" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="11" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="11" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="11" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="11" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="11" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="11" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="11" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="11" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="11" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="11" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="11" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="11" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="11" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="11" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="11" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="11" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="11" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="11" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="11" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="11" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="11" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="11" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="11" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="11" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="11" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="11" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="11" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="11" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="11" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="11" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="11" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="11" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="11" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="11" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="11" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="11" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="11" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="11" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="11" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="11" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="11" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="11" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="11" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="11" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="11" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="11" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="11" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="11" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="11" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="11" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="11" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="11" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="11" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="11" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="11" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="11" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="11" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="11" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="11" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="11" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="11" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="11" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="11" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="11" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="11" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="11" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="11" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="11" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="11" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="11" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="11" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="11" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="11" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="11" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="11" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="11" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="11" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="11" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="11" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="11" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="11" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="11" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="11" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="11" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="11" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="11" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="11" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="11" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="11" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="11" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="11" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="11" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="11" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="11" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="11" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="11" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="11" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="11" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="11" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="11" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="11" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="11" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="11" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="11" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="11" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="11" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="11" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="11" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="11" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="11" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="11" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="11" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="11" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="11" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="11" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="11" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="11" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="11" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="11" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="11" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="11" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="11" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="11" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="11" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="11" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="11" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="11" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="11" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" s="11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" s="11" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" s="11" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" s="11" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" s="11" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" s="11" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" s="11" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" s="11" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>